--- a/Citations for O'Hagan.xlsx
+++ b/Citations for O'Hagan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesalsbury/R Projects/PhD-Materials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smp21js\Documents\R Projects\PhD-Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3768B1D-A4F7-AA41-BB2F-EF4915A1047E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FAADC6-64FD-4B79-B173-2D3F20F115F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="493">
   <si>
     <t>Publication Type</t>
   </si>
@@ -56,9 +55,6 @@
     <t>Lalonde, RL; Peck, CC</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Probability of Success: A Crucial Concept to Inform Decision Making in Pharmaceutical Research and Development</t>
   </si>
   <si>
@@ -1491,6 +1487,30 @@
   </si>
   <si>
     <t>Methods for shrinking the unbiased estimator - as the treatment effect is usually overstated</t>
+  </si>
+  <si>
+    <t>A trial - HIV and others in Malawi</t>
+  </si>
+  <si>
+    <t>A trial - centronuclear myopathy</t>
+  </si>
+  <si>
+    <t>Meta-analytic-predictive approach to derive an informative prior</t>
+  </si>
+  <si>
+    <t>A trial - cocaine use disorder</t>
+  </si>
+  <si>
+    <t>Reference manual for researches interested in one-sided hypothesis assuming normality for the prior and likelihood</t>
+  </si>
+  <si>
+    <t>New framework to assess the PoS of a program before pivotal trials begin</t>
+  </si>
+  <si>
+    <t>Bayesian approach for calculating the PoS at end of phase ii</t>
+  </si>
+  <si>
+    <t>Defining PoS and how it is used</t>
   </si>
 </sst>
 </file>
@@ -1867,22 +1887,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="82" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="89" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="129.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="129.6328125" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" customWidth="1"/>
+    <col min="7" max="7" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1899,3397 +1920,3421 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2">
         <v>2021</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F2" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
       <c r="E3">
         <v>2021</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F3" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>2021</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>342</v>
+      </c>
+      <c r="G4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
       </c>
       <c r="E5">
         <v>2021</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>342</v>
+      </c>
+      <c r="G5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
       </c>
       <c r="E6">
         <v>2021</v>
       </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F6" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
       </c>
       <c r="E7">
         <v>2021</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>342</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
       </c>
       <c r="E8">
         <v>2021</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>343</v>
+      </c>
+      <c r="G8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" t="s">
         <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
       </c>
       <c r="E9">
         <v>2021</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+        <v>343</v>
+      </c>
+      <c r="G9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
       </c>
       <c r="E10">
         <v>2021</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>2021</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" t="s">
         <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
       </c>
       <c r="E12">
         <v>2021</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>2021</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" t="s">
         <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
       </c>
       <c r="E14">
         <v>2021</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" t="s">
         <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
       </c>
       <c r="E15">
         <v>2021</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <v>2021</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" t="s">
         <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
       </c>
       <c r="E17">
         <v>2021</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" t="s">
         <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>53</v>
       </c>
       <c r="E18">
         <v>2021</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" t="s">
         <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
       </c>
       <c r="E19">
         <v>2021</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" t="s">
         <v>58</v>
-      </c>
-      <c r="D20" t="s">
-        <v>59</v>
       </c>
       <c r="E20">
         <v>2021</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>2021</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
         <v>62</v>
       </c>
-      <c r="C22" t="s">
-        <v>63</v>
-      </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22">
         <v>2021</v>
       </c>
       <c r="F22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" t="s">
         <v>65</v>
-      </c>
-      <c r="D23" t="s">
-        <v>66</v>
       </c>
       <c r="E23">
         <v>2021</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
         <v>67</v>
       </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24">
         <v>2020</v>
       </c>
       <c r="F24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
         <v>69</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>70</v>
-      </c>
-      <c r="D25" t="s">
-        <v>71</v>
       </c>
       <c r="E25">
         <v>2020</v>
       </c>
       <c r="F25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G25" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" t="s">
         <v>73</v>
-      </c>
-      <c r="D26" t="s">
-        <v>74</v>
       </c>
       <c r="E26">
         <v>2020</v>
       </c>
       <c r="F26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G26" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" t="s">
         <v>76</v>
-      </c>
-      <c r="D27" t="s">
-        <v>77</v>
       </c>
       <c r="E27">
         <v>2020</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28">
         <v>2021</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" t="s">
         <v>81</v>
-      </c>
-      <c r="D29" t="s">
-        <v>82</v>
       </c>
       <c r="E29">
         <v>2021</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30">
         <v>2020</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>2020</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" t="s">
         <v>88</v>
-      </c>
-      <c r="D32" t="s">
-        <v>89</v>
       </c>
       <c r="E32">
         <v>2021</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E33">
         <v>2020</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34">
         <v>2020</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
       <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35">
         <v>2020</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
       <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E36">
         <v>2021</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
       <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" t="s">
         <v>98</v>
-      </c>
-      <c r="D37" t="s">
-        <v>99</v>
       </c>
       <c r="E37">
         <v>2020</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
       <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38">
         <v>2020</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" t="s">
         <v>103</v>
-      </c>
-      <c r="D39" t="s">
-        <v>104</v>
       </c>
       <c r="E39">
         <v>2020</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
       <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" t="s">
         <v>106</v>
-      </c>
-      <c r="D40" t="s">
-        <v>107</v>
       </c>
       <c r="E40">
         <v>2020</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
       <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" t="s">
         <v>109</v>
-      </c>
-      <c r="D41" t="s">
-        <v>110</v>
       </c>
       <c r="E41">
         <v>2019</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="D42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E42">
         <v>2019</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
       <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E43">
         <v>2019</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
       <c r="B44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E44">
         <v>2020</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E45">
         <v>2020</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
       <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E46">
         <v>2019</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
       <c r="B47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" t="s">
         <v>121</v>
-      </c>
-      <c r="D47" t="s">
-        <v>122</v>
       </c>
       <c r="E47">
         <v>2019</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
       <c r="B48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="D48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E48">
         <v>2019</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
       <c r="B49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E49">
         <v>2019</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
       <c r="B50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E50">
         <v>2019</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
       <c r="B51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E51">
         <v>2019</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
       <c r="B52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E52">
         <v>2019</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
       <c r="B53" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E53">
         <v>2019</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
       <c r="B54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="D54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E54">
         <v>2018</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E55">
         <v>2018</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
       <c r="B56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="D56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E56">
         <v>2018</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
       <c r="B57" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="D57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E57">
         <v>2018</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
       <c r="B58" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E58">
         <v>2018</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
       <c r="B59" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" t="s">
         <v>145</v>
-      </c>
-      <c r="D59" t="s">
-        <v>146</v>
       </c>
       <c r="E59">
         <v>2018</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
       <c r="B60" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E60">
         <v>2018</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
       <c r="B61" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="D61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E61">
         <v>2018</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
       <c r="B62" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E62">
         <v>2018</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
       <c r="B63" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63">
         <v>2018</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
       <c r="B64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E64">
         <v>2018</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
       <c r="B65" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="D65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E65">
         <v>2018</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
       <c r="B66" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E66">
         <v>2018</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
       <c r="B67" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="D67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E67">
         <v>2018</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
       <c r="B68" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="D68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E68">
         <v>2018</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
       <c r="B69" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="D69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E69">
         <v>2018</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
       <c r="B70" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="D70" t="s">
         <v>168</v>
-      </c>
-      <c r="D70" t="s">
-        <v>169</v>
       </c>
       <c r="E70">
         <v>2018</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
       <c r="B71" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="D71" t="s">
         <v>171</v>
-      </c>
-      <c r="D71" t="s">
-        <v>172</v>
       </c>
       <c r="E71">
         <v>2018</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
       <c r="B72" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="D72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E72">
         <v>2018</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
       <c r="B73" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="D73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E73">
         <v>2018</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
       <c r="B74" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E74">
         <v>2018</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>5</v>
       </c>
       <c r="B75" t="s">
+        <v>178</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E75">
         <v>2018</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76" t="s">
         <v>181</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="E76">
         <v>2018</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
       <c r="B77" t="s">
+        <v>184</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" t="s">
         <v>186</v>
-      </c>
-      <c r="D77" t="s">
-        <v>187</v>
       </c>
       <c r="E77">
         <v>2017</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
       <c r="B78" t="s">
+        <v>187</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="D78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E78">
         <v>2017</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>5</v>
       </c>
       <c r="B79" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E79">
         <v>2017</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D80" t="s">
         <v>192</v>
-      </c>
-      <c r="D80" t="s">
-        <v>193</v>
       </c>
       <c r="E80">
         <v>2017</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
       </c>
       <c r="B81" t="s">
+        <v>193</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="D81" t="s">
         <v>195</v>
-      </c>
-      <c r="D81" t="s">
-        <v>196</v>
       </c>
       <c r="E81">
         <v>2017</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
       <c r="B82" t="s">
+        <v>196</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="D82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E82">
         <v>2017</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E83">
         <v>2017</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
       <c r="B84" t="s">
+        <v>199</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" t="s">
         <v>201</v>
-      </c>
-      <c r="D84" t="s">
-        <v>202</v>
       </c>
       <c r="E84">
         <v>2017</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>202</v>
+      </c>
+      <c r="B85" t="s">
         <v>203</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="D85" t="s">
         <v>205</v>
-      </c>
-      <c r="D85" t="s">
-        <v>206</v>
       </c>
       <c r="E85">
         <v>2017</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>5</v>
       </c>
       <c r="B86" t="s">
+        <v>206</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="D86" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E86">
         <v>2016</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>5</v>
       </c>
       <c r="B87" t="s">
+        <v>208</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E87">
         <v>2016</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
       <c r="B88" t="s">
+        <v>210</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="D88" t="s">
         <v>212</v>
-      </c>
-      <c r="D88" t="s">
-        <v>213</v>
       </c>
       <c r="E88">
         <v>2016</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>5</v>
       </c>
       <c r="B89" t="s">
+        <v>213</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="D89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E89">
         <v>2016</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
       <c r="B90" t="s">
+        <v>215</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="D90" t="s">
         <v>217</v>
-      </c>
-      <c r="D90" t="s">
-        <v>218</v>
       </c>
       <c r="E90">
         <v>2016</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
       </c>
       <c r="B91" t="s">
+        <v>218</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E91">
         <v>2016</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
       <c r="B92" t="s">
+        <v>220</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>222</v>
-      </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E92">
         <v>2016</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
       <c r="B93" t="s">
+        <v>222</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="D93" t="s">
         <v>224</v>
-      </c>
-      <c r="D93" t="s">
-        <v>225</v>
       </c>
       <c r="E93">
         <v>2016</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>5</v>
       </c>
       <c r="B94" t="s">
+        <v>225</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="D94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E94">
         <v>2016</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>5</v>
       </c>
       <c r="B95" t="s">
+        <v>227</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="D95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E95">
         <v>2016</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>5</v>
       </c>
       <c r="B96" t="s">
+        <v>229</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="D96" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E96">
         <v>2016</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
       <c r="B97" t="s">
+        <v>231</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="D97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E97">
         <v>2016</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
       <c r="B98" t="s">
+        <v>233</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E98">
         <v>2015</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>5</v>
       </c>
       <c r="B99" t="s">
+        <v>235</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="D99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E99">
         <v>2015</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>5</v>
       </c>
       <c r="B100" t="s">
+        <v>237</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E100">
         <v>2015</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
       <c r="B101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="D101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E101">
         <v>2015</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D102" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E102">
         <v>2015</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
       <c r="B103" t="s">
+        <v>242</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="D103" t="s">
         <v>244</v>
-      </c>
-      <c r="D103" t="s">
-        <v>245</v>
       </c>
       <c r="E103">
         <v>2015</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>5</v>
       </c>
       <c r="B104" t="s">
+        <v>245</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="D104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E104">
         <v>2015</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>5</v>
       </c>
       <c r="B105" t="s">
+        <v>247</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="D105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E105">
         <v>2015</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E106">
         <v>2014</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>5</v>
       </c>
       <c r="B107" t="s">
+        <v>250</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="D107" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E107">
         <v>2014</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>5</v>
       </c>
       <c r="B108" t="s">
+        <v>252</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="D108" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E108">
         <v>2014</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
       <c r="B109" t="s">
+        <v>254</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="D109" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E109">
         <v>2014</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
       <c r="B110" t="s">
+        <v>256</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>258</v>
-      </c>
       <c r="D110" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E110">
         <v>2014</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
       <c r="B111" t="s">
+        <v>258</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="D111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E111">
         <v>2014</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
       <c r="B112" t="s">
+        <v>260</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="D112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E112">
         <v>2014</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
       <c r="B113" t="s">
+        <v>262</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="D113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E113">
         <v>2014</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>5</v>
       </c>
       <c r="B114" t="s">
+        <v>264</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="D114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E114">
         <v>2013</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
       <c r="B115" t="s">
+        <v>266</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="D115" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E115">
         <v>2013</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
       <c r="B116" t="s">
+        <v>268</v>
+      </c>
+      <c r="C116" t="s">
         <v>269</v>
       </c>
-      <c r="C116" t="s">
-        <v>270</v>
-      </c>
       <c r="D116" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E116">
         <v>2013</v>
       </c>
       <c r="F116" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>5</v>
       </c>
       <c r="B117" t="s">
+        <v>270</v>
+      </c>
+      <c r="C117" t="s">
         <v>271</v>
       </c>
-      <c r="C117" t="s">
-        <v>272</v>
-      </c>
       <c r="D117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E117">
         <v>2013</v>
       </c>
       <c r="F117" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G117" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
       <c r="B118" t="s">
+        <v>272</v>
+      </c>
+      <c r="C118" t="s">
         <v>273</v>
       </c>
-      <c r="C118" t="s">
-        <v>274</v>
-      </c>
       <c r="D118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E118">
         <v>2013</v>
       </c>
       <c r="F118" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G118" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>5</v>
       </c>
       <c r="B119" t="s">
+        <v>274</v>
+      </c>
+      <c r="C119" t="s">
         <v>275</v>
       </c>
-      <c r="C119" t="s">
-        <v>276</v>
-      </c>
       <c r="D119" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E119">
         <v>2013</v>
       </c>
       <c r="F119" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G119" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>5</v>
       </c>
       <c r="B120" t="s">
+        <v>276</v>
+      </c>
+      <c r="C120" t="s">
         <v>277</v>
       </c>
-      <c r="C120" t="s">
-        <v>278</v>
-      </c>
       <c r="D120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E120">
         <v>2013</v>
       </c>
       <c r="F120" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G120" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>5</v>
       </c>
       <c r="B121" t="s">
+        <v>278</v>
+      </c>
+      <c r="C121" t="s">
         <v>279</v>
       </c>
-      <c r="C121" t="s">
-        <v>280</v>
-      </c>
       <c r="D121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E121">
         <v>2013</v>
       </c>
       <c r="F121" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G121" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C122" t="s">
+        <v>280</v>
+      </c>
+      <c r="D122" t="s">
         <v>281</v>
-      </c>
-      <c r="D122" t="s">
-        <v>282</v>
       </c>
       <c r="E122">
         <v>2013</v>
       </c>
       <c r="F122" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G122" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>5</v>
       </c>
       <c r="B123" t="s">
+        <v>282</v>
+      </c>
+      <c r="C123" t="s">
         <v>283</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>284</v>
-      </c>
-      <c r="D123" t="s">
-        <v>285</v>
       </c>
       <c r="E123">
         <v>2013</v>
       </c>
       <c r="F123" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G123" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
       <c r="B124" t="s">
+        <v>285</v>
+      </c>
+      <c r="C124" t="s">
         <v>286</v>
       </c>
-      <c r="C124" t="s">
-        <v>287</v>
-      </c>
       <c r="D124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E124">
         <v>2012</v>
       </c>
       <c r="F124" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G124" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>5</v>
       </c>
       <c r="B125" t="s">
+        <v>287</v>
+      </c>
+      <c r="C125" t="s">
         <v>288</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>289</v>
-      </c>
-      <c r="D125" t="s">
-        <v>290</v>
       </c>
       <c r="E125">
         <v>2012</v>
       </c>
       <c r="F125" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G125" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
       <c r="B126" t="s">
+        <v>290</v>
+      </c>
+      <c r="C126" t="s">
         <v>291</v>
       </c>
-      <c r="C126" t="s">
-        <v>292</v>
-      </c>
       <c r="D126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E126">
         <v>2012</v>
       </c>
       <c r="F126" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
       <c r="B127" t="s">
+        <v>292</v>
+      </c>
+      <c r="C127" t="s">
         <v>293</v>
       </c>
-      <c r="C127" t="s">
-        <v>294</v>
-      </c>
       <c r="D127" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E127">
         <v>2012</v>
       </c>
       <c r="F127" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G127" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
       <c r="B128" t="s">
+        <v>294</v>
+      </c>
+      <c r="C128" t="s">
         <v>295</v>
       </c>
-      <c r="C128" t="s">
-        <v>296</v>
-      </c>
       <c r="D128" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E128">
         <v>2011</v>
       </c>
       <c r="F128" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G128" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.15">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>5</v>
       </c>
       <c r="B129" t="s">
+        <v>296</v>
+      </c>
+      <c r="C129" t="s">
         <v>297</v>
       </c>
-      <c r="C129" t="s">
-        <v>298</v>
-      </c>
       <c r="D129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E129">
         <v>2011</v>
       </c>
       <c r="F129" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G129" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="V129" s="3"/>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>5</v>
       </c>
       <c r="B130" t="s">
+        <v>298</v>
+      </c>
+      <c r="C130" t="s">
         <v>299</v>
       </c>
-      <c r="C130" t="s">
-        <v>300</v>
-      </c>
       <c r="D130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E130">
         <v>2011</v>
       </c>
       <c r="F130" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G130" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.15">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>5</v>
       </c>
       <c r="B131" t="s">
+        <v>300</v>
+      </c>
+      <c r="C131" t="s">
         <v>301</v>
       </c>
-      <c r="C131" t="s">
-        <v>302</v>
-      </c>
       <c r="D131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E131">
         <v>2011</v>
       </c>
       <c r="F131" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.15">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>5</v>
       </c>
       <c r="B132" t="s">
+        <v>302</v>
+      </c>
+      <c r="C132" t="s">
         <v>303</v>
       </c>
-      <c r="C132" t="s">
-        <v>304</v>
-      </c>
       <c r="D132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E132">
         <v>2011</v>
       </c>
       <c r="F132" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.15">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>5</v>
       </c>
       <c r="B133" t="s">
+        <v>304</v>
+      </c>
+      <c r="C133" t="s">
         <v>305</v>
       </c>
-      <c r="C133" t="s">
-        <v>306</v>
-      </c>
       <c r="D133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E133">
         <v>2011</v>
       </c>
       <c r="F133" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G133" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.15">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>5</v>
       </c>
       <c r="B134" t="s">
+        <v>306</v>
+      </c>
+      <c r="C134" t="s">
         <v>307</v>
       </c>
-      <c r="C134" t="s">
-        <v>308</v>
-      </c>
       <c r="D134" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E134">
         <v>2011</v>
       </c>
       <c r="F134" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G134" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.15">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>5</v>
       </c>
       <c r="B135" t="s">
+        <v>308</v>
+      </c>
+      <c r="C135" t="s">
         <v>309</v>
       </c>
-      <c r="C135" t="s">
-        <v>310</v>
-      </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E135">
         <v>2010</v>
       </c>
       <c r="F135" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G135" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.15">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
       <c r="B136" t="s">
+        <v>310</v>
+      </c>
+      <c r="C136" t="s">
         <v>311</v>
       </c>
-      <c r="C136" t="s">
-        <v>312</v>
-      </c>
       <c r="D136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E136">
         <v>2010</v>
       </c>
       <c r="F136" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G136" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.15">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
       <c r="B137" t="s">
+        <v>312</v>
+      </c>
+      <c r="C137" t="s">
         <v>313</v>
       </c>
-      <c r="C137" t="s">
-        <v>314</v>
-      </c>
       <c r="D137" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E137">
         <v>2010</v>
       </c>
       <c r="F137" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.15">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
       <c r="B138" t="s">
+        <v>314</v>
+      </c>
+      <c r="C138" t="s">
         <v>315</v>
       </c>
-      <c r="C138" t="s">
-        <v>316</v>
-      </c>
       <c r="D138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E138">
         <v>2009</v>
       </c>
       <c r="F138" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.15">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>5</v>
       </c>
       <c r="B139" t="s">
+        <v>316</v>
+      </c>
+      <c r="C139" t="s">
         <v>317</v>
       </c>
-      <c r="C139" t="s">
-        <v>318</v>
-      </c>
       <c r="D139" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E139">
         <v>2009</v>
       </c>
       <c r="F139" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G139" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>5</v>
       </c>
       <c r="B140" t="s">
+        <v>318</v>
+      </c>
+      <c r="C140" t="s">
         <v>319</v>
       </c>
-      <c r="C140" t="s">
-        <v>320</v>
-      </c>
       <c r="D140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E140">
         <v>2009</v>
       </c>
       <c r="F140" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G140" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.15">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>5</v>
       </c>
       <c r="B141" t="s">
+        <v>320</v>
+      </c>
+      <c r="C141" t="s">
         <v>321</v>
       </c>
-      <c r="C141" t="s">
-        <v>322</v>
-      </c>
       <c r="D141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E141">
         <v>2009</v>
       </c>
       <c r="F141" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G141" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
       <c r="B142" t="s">
+        <v>322</v>
+      </c>
+      <c r="C142" t="s">
         <v>323</v>
       </c>
-      <c r="C142" t="s">
-        <v>324</v>
-      </c>
       <c r="D142" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E142">
         <v>2009</v>
       </c>
       <c r="F142" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G142" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.15">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>5</v>
       </c>
       <c r="B143" t="s">
+        <v>324</v>
+      </c>
+      <c r="C143" t="s">
         <v>325</v>
       </c>
-      <c r="C143" t="s">
-        <v>326</v>
-      </c>
       <c r="D143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E143">
         <v>2008</v>
       </c>
       <c r="F143" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G143" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>5</v>
       </c>
       <c r="B144" t="s">
+        <v>326</v>
+      </c>
+      <c r="C144" t="s">
         <v>327</v>
       </c>
-      <c r="C144" t="s">
-        <v>328</v>
-      </c>
       <c r="D144" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E144">
         <v>2008</v>
       </c>
       <c r="F144" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G144" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>5</v>
       </c>
       <c r="B145" t="s">
+        <v>328</v>
+      </c>
+      <c r="C145" t="s">
         <v>329</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>330</v>
-      </c>
-      <c r="D145" t="s">
-        <v>331</v>
       </c>
       <c r="E145">
         <v>2008</v>
       </c>
       <c r="F145" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G145" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>5</v>
       </c>
       <c r="B146" t="s">
+        <v>331</v>
+      </c>
+      <c r="C146" t="s">
         <v>332</v>
       </c>
-      <c r="C146" t="s">
-        <v>333</v>
-      </c>
       <c r="D146" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E146">
         <v>2007</v>
       </c>
       <c r="F146" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G146" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
       <c r="B147" t="s">
+        <v>333</v>
+      </c>
+      <c r="C147" t="s">
         <v>334</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>335</v>
-      </c>
-      <c r="D147" t="s">
-        <v>336</v>
       </c>
       <c r="E147">
         <v>2007</v>
       </c>
       <c r="F147" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G147" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>5</v>
       </c>
       <c r="B148" t="s">
+        <v>336</v>
+      </c>
+      <c r="C148" t="s">
         <v>337</v>
       </c>
-      <c r="C148" t="s">
-        <v>338</v>
-      </c>
       <c r="D148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E148">
         <v>2007</v>
       </c>
       <c r="F148" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G148" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>5</v>
       </c>
       <c r="B149" t="s">
+        <v>338</v>
+      </c>
+      <c r="C149" t="s">
         <v>339</v>
       </c>
-      <c r="C149" t="s">
-        <v>340</v>
-      </c>
       <c r="D149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E149">
         <v>2006</v>
       </c>
       <c r="F149" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G149" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G149" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Citations for O'Hagan.xlsx
+++ b/Citations for O'Hagan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smp21js\Documents\R Projects\PhD-Materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesalsbury/R Projects/PhD-Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FAADC6-64FD-4B79-B173-2D3F20F115F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7872DF-CEF8-2D4F-BBF1-E40A2E689CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24840" windowHeight="13280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1887,23 +1887,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="89" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="C83" zoomScale="89" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="129.6328125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="129.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" customWidth="1"/>
-    <col min="7" max="7" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>340</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>180</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>202</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -3950,14 +3950,14 @@
         <v>405</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>5</v>
       </c>
       <c r="B90" t="s">
         <v>215</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="3" t="s">
         <v>216</v>
       </c>
       <c r="D90" t="s">
@@ -3973,7 +3973,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="V129" s="3"/>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>5</v>
       </c>

--- a/Citations for O'Hagan.xlsx
+++ b/Citations for O'Hagan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesalsbury/R Projects/PhD-Materials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smp21js\Documents\R Projects\PhD-Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7872DF-CEF8-2D4F-BBF1-E40A2E689CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EA7FCA-0B79-4BBB-93FD-67031917774E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24840" windowHeight="13280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="495">
   <si>
     <t>Publication Type</t>
   </si>
@@ -1511,13 +1511,19 @@
   </si>
   <si>
     <t>Defining PoS and how it is used</t>
+  </si>
+  <si>
+    <t>How are the priors constructed? What are the priors?</t>
+  </si>
+  <si>
+    <t>Prior knowledge is used a few times in this paper. Questionnaire for the chances of PoS, then linear mixed effects model. Also elicit phase iii endpoints given phase ii results. Used SHELF for this, 4 experts and then pooled their beliefs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1544,6 +1550,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1565,17 +1577,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1885,48 +1907,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:V149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C83" zoomScale="89" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="89" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="129.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="129.6328125" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" customWidth="1"/>
+    <col min="7" max="7" width="100.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" s="5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1949,14 +1975,14 @@
         <v>492</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
@@ -1971,8 +1997,11 @@
       <c r="G3" s="1" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H3" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1995,7 +2024,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2018,7 +2047,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2041,14 +2070,14 @@
         <v>488</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
@@ -2064,7 +2093,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2087,7 +2116,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2110,7 +2139,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2133,7 +2162,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2156,7 +2185,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2179,7 +2208,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>340</v>
       </c>
@@ -2202,7 +2231,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2225,7 +2254,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2248,7 +2277,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -2271,7 +2300,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2294,7 +2323,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2317,7 +2346,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2340,7 +2369,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2363,7 +2392,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2386,7 +2415,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2409,7 +2438,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -2432,7 +2461,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -2455,7 +2484,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -2478,7 +2507,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2501,7 +2530,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2524,7 +2553,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2547,7 +2576,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2570,7 +2599,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2593,7 +2622,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2616,7 +2645,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2639,7 +2668,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -2662,7 +2691,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2685,7 +2714,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2708,7 +2737,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2731,7 +2760,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2754,7 +2783,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2777,7 +2806,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2800,7 +2829,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2823,7 +2852,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2846,7 +2875,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2869,7 +2898,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2892,7 +2921,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -2915,7 +2944,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -2938,7 +2967,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -2961,7 +2990,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -2984,7 +3013,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -3007,7 +3036,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -3030,7 +3059,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -3053,7 +3082,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -3076,7 +3105,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -3099,7 +3128,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -3122,7 +3151,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -3145,7 +3174,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -3168,7 +3197,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -3191,7 +3220,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -3214,7 +3243,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -3237,7 +3266,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -3260,7 +3289,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -3283,7 +3312,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -3306,7 +3335,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -3329,7 +3358,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -3352,7 +3381,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -3375,7 +3404,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -3398,7 +3427,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -3421,7 +3450,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -3444,7 +3473,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -3467,7 +3496,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -3490,7 +3519,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -3513,7 +3542,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -3536,7 +3565,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -3559,7 +3588,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -3582,7 +3611,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -3605,7 +3634,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -3628,7 +3657,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>180</v>
       </c>
@@ -3651,7 +3680,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -3674,7 +3703,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -3697,7 +3726,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -3720,7 +3749,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -3743,7 +3772,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -3766,7 +3795,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -3789,7 +3818,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -3812,7 +3841,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -3835,7 +3864,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>202</v>
       </c>
@@ -3858,7 +3887,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -3881,7 +3910,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -3904,7 +3933,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -3927,7 +3956,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -3950,7 +3979,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -3973,7 +4002,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -3996,7 +4025,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -4019,7 +4048,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -4042,7 +4071,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -4065,7 +4094,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -4088,7 +4117,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -4111,7 +4140,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -4134,7 +4163,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -4157,7 +4186,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -4180,7 +4209,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -4203,7 +4232,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -4226,7 +4255,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -4249,7 +4278,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -4272,7 +4301,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -4295,7 +4324,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -4318,7 +4347,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -4341,7 +4370,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -4364,7 +4393,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -4387,7 +4416,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -4410,7 +4439,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -4433,7 +4462,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -4456,7 +4485,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -4479,7 +4508,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -4502,7 +4531,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -4525,7 +4554,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -4548,7 +4577,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -4571,7 +4600,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -4594,7 +4623,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -4617,7 +4646,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -4640,7 +4669,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -4663,7 +4692,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -4686,7 +4715,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -4709,7 +4738,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -4732,7 +4761,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -4755,7 +4784,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -4778,7 +4807,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -4801,7 +4830,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -4824,7 +4853,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -4847,7 +4876,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -4871,7 +4900,7 @@
       </c>
       <c r="V129" s="3"/>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -4894,7 +4923,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -4917,7 +4946,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -4940,7 +4969,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -4963,7 +4992,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -4986,7 +5015,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -5009,7 +5038,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -5032,7 +5061,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -5055,7 +5084,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -5078,7 +5107,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -5101,7 +5130,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -5124,7 +5153,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -5147,7 +5176,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -5170,7 +5199,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -5193,7 +5222,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -5216,7 +5245,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -5239,7 +5268,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -5262,7 +5291,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -5285,7 +5314,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -5308,7 +5337,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -5332,7 +5361,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G149" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G149" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <colorFilter dxfId="0" cellColor="0"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
